--- a/backend/candmapi/employees.xlsx
+++ b/backend/candmapi/employees.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\POSOCO\CandM1\backend\candmapi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF00F00E-3AD5-4982-B8D7-997ED968920F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{97AE0A3C-4F43-47E1-93B8-754C04ADA3CF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
   <si>
     <t>emp_no</t>
   </si>
@@ -377,9 +371,6 @@
     <t>MO</t>
   </si>
   <si>
-    <t>CNM</t>
-  </si>
-  <si>
     <t>System Logistics</t>
   </si>
   <si>
@@ -422,19 +413,34 @@
     <t>MVD Raghava</t>
   </si>
   <si>
-    <t>Store Incharge</t>
-  </si>
-  <si>
     <t xml:space="preserve">CGM </t>
   </si>
   <si>
     <t xml:space="preserve">CGM  </t>
+  </si>
+  <si>
+    <t>ES - S/I</t>
+  </si>
+  <si>
+    <t>CGM SECTT</t>
+  </si>
+  <si>
+    <t>Excecutive Trainee</t>
+  </si>
+  <si>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t>C&amp;M</t>
+  </si>
+  <si>
+    <t>Regulatory Affairs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -674,7 +680,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -868,29 +874,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6433203C-4843-47EC-8E3D-DF1FCAECC1B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="31.15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>30003</v>
       </c>
@@ -915,7 +921,7 @@
         <v>94</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -926,7 +932,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>111</v>
@@ -943,7 +949,7 @@
         <v>107</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -954,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>112</v>
@@ -971,7 +977,7 @@
         <v>107</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -982,10 +988,10 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -996,7 +1002,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>113</v>
@@ -1010,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>114</v>
@@ -1024,10 +1030,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1038,10 +1044,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1052,10 +1058,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1066,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>113</v>
@@ -1080,7 +1086,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>114</v>
@@ -1094,10 +1100,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1108,10 +1114,10 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1122,10 +1128,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1136,7 +1142,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>113</v>
@@ -1150,10 +1156,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1167,7 +1173,7 @@
         <v>95</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1181,7 +1187,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1195,7 +1201,7 @@
         <v>95</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1223,7 +1229,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1237,7 +1243,7 @@
         <v>95</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1265,7 +1271,7 @@
         <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1279,7 +1285,7 @@
         <v>96</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1293,7 +1299,7 @@
         <v>96</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1335,7 +1341,7 @@
         <v>96</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1363,7 +1369,7 @@
         <v>96</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1391,7 +1397,7 @@
         <v>96</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1405,7 +1411,7 @@
         <v>96</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1419,7 +1425,7 @@
         <v>97</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1436,7 +1442,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>40040</v>
       </c>
@@ -1447,10 +1453,10 @@
         <v>97</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40041</v>
       </c>
@@ -1461,10 +1467,10 @@
         <v>97</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40042</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40043</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40044</v>
       </c>
@@ -1506,12 +1512,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40045</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>97</v>
@@ -1520,7 +1526,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>40046</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>40047</v>
       </c>
@@ -1545,38 +1551,38 @@
         <v>97</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>40048</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>40049</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>40050</v>
       </c>
@@ -1587,10 +1593,10 @@
         <v>98</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>40052</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -1629,10 +1635,10 @@
         <v>98</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1643,10 +1649,10 @@
         <v>98</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -1657,10 +1663,10 @@
         <v>98</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1671,10 +1677,10 @@
         <v>98</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -1699,10 +1705,10 @@
         <v>98</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
@@ -1713,24 +1719,24 @@
         <v>98</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
@@ -1741,10 +1747,10 @@
         <v>98</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
@@ -1755,10 +1761,10 @@
         <v>98</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
@@ -1769,10 +1775,10 @@
         <v>98</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
@@ -1794,13 +1800,13 @@
         <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>40054</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>40055</v>
       </c>
@@ -1822,13 +1828,13 @@
         <v>79</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>40056</v>
       </c>
@@ -1839,10 +1845,10 @@
         <v>100</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>40057</v>
       </c>
@@ -1853,10 +1859,10 @@
         <v>100</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>40058</v>
       </c>
@@ -1867,10 +1873,10 @@
         <v>100</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>40059</v>
       </c>
@@ -1884,12 +1890,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>40066</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>101</v>
@@ -1898,21 +1904,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>40067</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>40068</v>
       </c>
@@ -1923,10 +1929,10 @@
         <v>102</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>40069</v>
       </c>
@@ -1937,10 +1943,10 @@
         <v>102</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>40070</v>
       </c>
@@ -1951,10 +1957,10 @@
         <v>109</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>40071</v>
       </c>
@@ -1965,10 +1971,10 @@
         <v>102</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>40072</v>
       </c>
@@ -1979,10 +1985,10 @@
         <v>103</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>40060</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>40061</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>40073</v>
       </c>
@@ -2021,10 +2027,10 @@
         <v>105</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>40062</v>
       </c>
@@ -2035,10 +2041,10 @@
         <v>106</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>40063</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>106</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
